--- a/PV_WT_IEEE118/IEEE118_non_random_Fitness.xlsx
+++ b/PV_WT_IEEE118/IEEE118_non_random_Fitness.xlsx
@@ -26,13 +26,13 @@
     <t>TSO</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>GWO</t>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>PLO</t>
   </si>
   <si>
     <t>TLBO</t>
@@ -153,13 +153,13 @@
         <v>116442.14167533004</v>
       </c>
       <c r="D2" s="0">
-        <v>134030.72380962363</v>
+        <v>123342.90249090067</v>
       </c>
       <c r="E2" s="0">
-        <v>122099.18191111702</v>
+        <v>130788.81477468365</v>
       </c>
       <c r="F2" s="0">
-        <v>129872.23284080568</v>
+        <v>135285.90441718683</v>
       </c>
       <c r="G2" s="0">
         <v>129600.38585743149</v>
@@ -182,13 +182,13 @@
         <v>119893.61488341288</v>
       </c>
       <c r="D3" s="0">
-        <v>149026.30698965266</v>
+        <v>128620.67077336532</v>
       </c>
       <c r="E3" s="0">
-        <v>136805.04636022056</v>
+        <v>141633.98737875905</v>
       </c>
       <c r="F3" s="0">
-        <v>140254.33728691636</v>
+        <v>141312.01025688104</v>
       </c>
       <c r="G3" s="0">
         <v>137051.01074147725</v>
@@ -211,13 +211,13 @@
         <v>124366.992767749</v>
       </c>
       <c r="D4" s="0">
-        <v>163637.88098843209</v>
+        <v>136280.39265269897</v>
       </c>
       <c r="E4" s="0">
-        <v>151518.07333577049</v>
+        <v>156344.28052533069</v>
       </c>
       <c r="F4" s="0">
-        <v>151417.42969085969</v>
+        <v>146938.14322658416</v>
       </c>
       <c r="G4" s="0">
         <v>148857.56006491644</v>
@@ -240,13 +240,13 @@
         <v>1925.0833569647684</v>
       </c>
       <c r="D5" s="0">
-        <v>8121.0314235745254</v>
+        <v>3273.2284760259813</v>
       </c>
       <c r="E5" s="0">
-        <v>6862.067642962199</v>
+        <v>5754.3288586624931</v>
       </c>
       <c r="F5" s="0">
-        <v>5991.6938734533305</v>
+        <v>3542.5077297885177</v>
       </c>
       <c r="G5" s="0">
         <v>4549.0017846746832</v>
@@ -318,13 +318,13 @@
         <v>29.871266383654131</v>
       </c>
       <c r="D2" s="0">
-        <v>139.21277654017496</v>
+        <v>58.863147370011831</v>
       </c>
       <c r="E2" s="0">
-        <v>45.569134928002569</v>
+        <v>407.65473297481367</v>
       </c>
       <c r="F2" s="0">
-        <v>67.197803212705836</v>
+        <v>158.58367437521457</v>
       </c>
       <c r="G2" s="0">
         <v>65.037596773180368</v>
@@ -347,13 +347,13 @@
         <v>38.843097714608504</v>
       </c>
       <c r="D3" s="0">
-        <v>260.68663995902176</v>
+        <v>159.85535160411817</v>
       </c>
       <c r="E3" s="0">
-        <v>116.94774693703236</v>
+        <v>1377.7981399454839</v>
       </c>
       <c r="F3" s="0">
-        <v>101.6873128597727</v>
+        <v>209.45661850345869</v>
       </c>
       <c r="G3" s="0">
         <v>110.93977256119921</v>
@@ -376,13 +376,13 @@
         <v>54.148667115459645</v>
       </c>
       <c r="D4" s="0">
-        <v>528.22102949779662</v>
+        <v>444.46831566189303</v>
       </c>
       <c r="E4" s="0">
-        <v>280.34905375683854</v>
+        <v>2004.8329889686147</v>
       </c>
       <c r="F4" s="0">
-        <v>176.01922684280743</v>
+        <v>261.64769440785199</v>
       </c>
       <c r="G4" s="0">
         <v>191.75630606113526</v>
@@ -405,13 +405,13 @@
         <v>5.4430862207233988</v>
       </c>
       <c r="D5" s="0">
-        <v>96.733502953501088</v>
+        <v>106.32148532961942</v>
       </c>
       <c r="E5" s="0">
-        <v>40.24479007194504</v>
+        <v>742.55607403559418</v>
       </c>
       <c r="F5" s="0">
-        <v>28.092142563878959</v>
+        <v>30.753866741297699</v>
       </c>
       <c r="G5" s="0">
         <v>37.60669542978448</v>
@@ -437,7 +437,7 @@
   <cols>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="12.453125" customWidth="true"/>
-    <col min="4" max="4" width="11.453125" customWidth="true"/>
+    <col min="4" max="4" width="12.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
     <col min="6" max="6" width="11.453125" customWidth="true"/>
     <col min="7" max="7" width="11.453125" customWidth="true"/>
@@ -483,13 +483,13 @@
         <v>0.70074056245174166</v>
       </c>
       <c r="D2" s="0">
-        <v>3.0325992210893613</v>
+        <v>0.75240567967779348</v>
       </c>
       <c r="E2" s="0">
-        <v>1.5485249055939128</v>
+        <v>1.6081454634898784</v>
       </c>
       <c r="F2" s="0">
-        <v>1.4861287224873752</v>
+        <v>3.0875844209394021</v>
       </c>
       <c r="G2" s="0">
         <v>1.3407986276388297</v>
@@ -512,13 +512,13 @@
         <v>0.86377807876773283</v>
       </c>
       <c r="D3" s="0">
-        <v>3.4981691216135364</v>
+        <v>0.99933797174305572</v>
       </c>
       <c r="E3" s="0">
-        <v>2.6163993922078528</v>
+        <v>3.2084954557524128</v>
       </c>
       <c r="F3" s="0">
-        <v>1.749015249687452</v>
+        <v>3.4382100203228632</v>
       </c>
       <c r="G3" s="0">
         <v>2.6022894289295819</v>
@@ -541,13 +541,13 @@
         <v>1.0822586196091653</v>
       </c>
       <c r="D4" s="0">
-        <v>4.121762827836128</v>
+        <v>1.3106492255841258</v>
       </c>
       <c r="E4" s="0">
-        <v>3.560765565989096</v>
+        <v>5.9047246814991317</v>
       </c>
       <c r="F4" s="0">
-        <v>2.2035906043976494</v>
+        <v>3.7986653240248529</v>
       </c>
       <c r="G4" s="0">
         <v>4.68768799661758</v>
@@ -570,13 +570,13 @@
         <v>0.093538898099675874</v>
       </c>
       <c r="D5" s="0">
-        <v>0.27359609849343597</v>
+        <v>0.13867038649643298</v>
       </c>
       <c r="E5" s="0">
-        <v>0.40536465195233556</v>
+        <v>1.8820574422413929</v>
       </c>
       <c r="F5" s="0">
-        <v>0.19687712154488526</v>
+        <v>0.22059233777671639</v>
       </c>
       <c r="G5" s="0">
         <v>0.88802269058226035</v>
@@ -648,13 +648,13 @@
         <v>180414.17112251278</v>
       </c>
       <c r="D2" s="0">
-        <v>303158.31375009904</v>
+        <v>190983.16224192685</v>
       </c>
       <c r="E2" s="0">
-        <v>217301.96643835318</v>
+        <v>241684.06985148432</v>
       </c>
       <c r="F2" s="0">
-        <v>217647.0238560469</v>
+        <v>325625.69034762972</v>
       </c>
       <c r="G2" s="0">
         <v>204466.75881293602</v>
@@ -677,13 +677,13 @@
         <v>188891.47338945259</v>
       </c>
       <c r="D3" s="0">
-        <v>356011.01429473265</v>
+        <v>214823.19199349862</v>
       </c>
       <c r="E3" s="0">
-        <v>273535.39385505184</v>
+        <v>242004.05759692902</v>
       </c>
       <c r="F3" s="0">
-        <v>247783.42102631286</v>
+        <v>353402.39750206546</v>
       </c>
       <c r="G3" s="0">
         <v>244658.90675630362</v>
@@ -706,13 +706,13 @@
         <v>195784.59002820024</v>
       </c>
       <c r="D4" s="0">
-        <v>427615.75450546236</v>
+        <v>250436.45933935835</v>
       </c>
       <c r="E4" s="0">
-        <v>316100.56825967756</v>
+        <v>242283.62947528053</v>
       </c>
       <c r="F4" s="0">
-        <v>281861.17128238146</v>
+        <v>394545.54245026305</v>
       </c>
       <c r="G4" s="0">
         <v>299367.06034795183</v>
@@ -735,13 +735,13 @@
         <v>4209.7772793434051</v>
       </c>
       <c r="D5" s="0">
-        <v>25552.153291543909</v>
+        <v>12787.675255921758</v>
       </c>
       <c r="E5" s="0">
-        <v>21596.649886048162</v>
+        <v>157.26707472806024</v>
       </c>
       <c r="F5" s="0">
-        <v>16072.666978551453</v>
+        <v>21646.043186670406</v>
       </c>
       <c r="G5" s="0">
         <v>19892.184949752063</v>
@@ -813,13 +813,13 @@
         <v>130437.21383246852</v>
       </c>
       <c r="D2" s="0">
-        <v>170537.47239810356</v>
+        <v>137600.22393164909</v>
       </c>
       <c r="E2" s="0">
-        <v>150078.31121906711</v>
+        <v>163702.53247969612</v>
       </c>
       <c r="F2" s="0">
-        <v>144643.58501446087</v>
+        <v>176691.62885895342</v>
       </c>
       <c r="G2" s="0">
         <v>146902.15363304471</v>
@@ -842,13 +842,13 @@
         <v>134559.70330475693</v>
       </c>
       <c r="D3" s="0">
-        <v>185108.09231303947</v>
+        <v>146442.59341890502</v>
       </c>
       <c r="E3" s="0">
-        <v>164422.67680549793</v>
+        <v>163763.70642917146</v>
       </c>
       <c r="F3" s="0">
-        <v>160691.88314979311</v>
+        <v>185818.87132428092</v>
       </c>
       <c r="G3" s="0">
         <v>163508.19582854395</v>
@@ -871,13 +871,13 @@
         <v>142829.45988678187</v>
       </c>
       <c r="D4" s="0">
-        <v>204360.21874322661</v>
+        <v>160032.85601320225</v>
       </c>
       <c r="E4" s="0">
-        <v>184649.65782052153</v>
+        <v>163824.98969168204</v>
       </c>
       <c r="F4" s="0">
-        <v>184530.58417144418</v>
+        <v>198781.33411859124</v>
       </c>
       <c r="G4" s="0">
         <v>188728.80753299745</v>
@@ -900,13 +900,13 @@
         <v>2637.3044732949329</v>
       </c>
       <c r="D5" s="0">
-        <v>8787.7445015173435</v>
+        <v>6242.2187982412152</v>
       </c>
       <c r="E5" s="0">
-        <v>8287.1398911382294</v>
+        <v>37.797608813282991</v>
       </c>
       <c r="F5" s="0">
-        <v>9963.7358846693496</v>
+        <v>7937.6441737362857</v>
       </c>
       <c r="G5" s="0">
         <v>10338.028462551665</v>
@@ -978,13 +978,13 @@
         <v>159745.53278772638</v>
       </c>
       <c r="D2" s="0">
-        <v>241373.21110795008</v>
+        <v>177710.66238127864</v>
       </c>
       <c r="E2" s="0">
-        <v>201835.78212969052</v>
+        <v>205081.84572484661</v>
       </c>
       <c r="F2" s="0">
-        <v>184947.35977488369</v>
+        <v>248475.48989070047</v>
       </c>
       <c r="G2" s="0">
         <v>189256.68767755834</v>
@@ -1007,13 +1007,13 @@
         <v>166747.09163121978</v>
       </c>
       <c r="D3" s="0">
-        <v>276416.26928000891</v>
+        <v>186421.4562451118</v>
       </c>
       <c r="E3" s="0">
-        <v>232610.16668997731</v>
+        <v>205489.76201795187</v>
       </c>
       <c r="F3" s="0">
-        <v>209610.78666135657</v>
+        <v>276713.49351266358</v>
       </c>
       <c r="G3" s="0">
         <v>221446.43688206046</v>
@@ -1036,13 +1036,13 @@
         <v>174626.56129714649</v>
       </c>
       <c r="D4" s="0">
-        <v>311355.47684020275</v>
+        <v>198044.62778377667</v>
       </c>
       <c r="E4" s="0">
-        <v>264266.15252911381</v>
+        <v>206294.6155859805</v>
       </c>
       <c r="F4" s="0">
-        <v>242437.0453858301</v>
+        <v>308565.50050790841</v>
       </c>
       <c r="G4" s="0">
         <v>242753.54041993793</v>
@@ -1065,13 +1065,13 @@
         <v>3367.0386975602587</v>
       </c>
       <c r="D5" s="0">
-        <v>17455.076840132006</v>
+        <v>6820.2392647247007</v>
       </c>
       <c r="E5" s="0">
-        <v>12653.470098502024</v>
+        <v>288.06995807048156</v>
       </c>
       <c r="F5" s="0">
-        <v>14019.871259076506</v>
+        <v>13726.78649920526</v>
       </c>
       <c r="G5" s="0">
         <v>13857.893359338761</v>
